--- a/Data_processed/electricity/electricity Canada.xlsx
+++ b/Data_processed/electricity/electricity Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:CW14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>B.046.02.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Electricity Alberta production</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.036335516096</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0036331403</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0051785857</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.8780096e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02748501</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0025156607</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.002662925</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002387186</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0012459543</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.8780096e-05</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.1832334</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>5.1696617</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.3391936</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.691764</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.10681947</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.031884658</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0041835888</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.00392539</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.00015706819</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00010113053</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.3533513e-07</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5.8087348e-10</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.01416394</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.7004059e-07</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5.1305352e-10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.4017355e-14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>6.3970345e-11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>6.523057e-08</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.4588359e-11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5.3217589e-11</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.4865703e-06</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.014162454</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.0120289e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.6689814e-07</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>5.1090334e-06</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.1365087e-09</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.4174556e-06</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3.4669388e-09</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>4.8014009e-07</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>2.7421586e-06</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4.9177974e-14</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.1832334</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00025102636</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.00018096284</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4.6411676e-05</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.2316289</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.02748501</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.008811725999999999</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0051785857</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0051785857</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3.8780096e-05</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>B.046.02.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Electricity British Columbia production</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.00221076142</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00035660075</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00050017038</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00019742829</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001156562</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00024823852</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00025193186</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00022552128</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00013107947</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.00019742829</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.007710413333333334</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>2.7146856</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2468644</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.4614352</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.031153965</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.97523201</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0002533811</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.00022894367</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.6304984e-06</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.6806934e-05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.372564e-08</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.8219299e-11</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0023539124</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.1552635e-09</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.1589157e-11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5.8984662e-16</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>6.0433808e-12</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>6.5643328e-09</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.3781856e-12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5.2513662e-12</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7.5680843e-06</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0023463443</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>7.4132785e-07</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.6204505e-08</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.1498678e-07</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.0736779e-10</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.4714953e-07</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>3.2752725e-10</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>4.5459767e-08</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>2.9709213e-07</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>2.5036357e-13</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.0077104133</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>2.4770595e-05</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1.7120386e-05</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>4.782573e-06</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.033735986</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.001156562</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.00085677113</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.00050017038</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.00050017038</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.00019742829</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>B.046.02.103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Electricity Manitoba production</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.000678739804</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.744703e-05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.3151604e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00021366375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00040447742</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.8078307e-05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.5073297e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.3569474e-05</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3877556e-05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00021366375</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.002696516133333333</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>2.4069924</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.014446369</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.3023815</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.035072321</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.0550922</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.4053206e-05</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.0852821e-05</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2.1674761e-06</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.0329084e-06</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.0487303e-09</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>8.015813900000001e-12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.00014466505</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.502367e-09</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.5502452e-12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.0628348e-16</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3.6362642e-13</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>5.4599967e-10</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.2924562e-14</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3.8243787e-13</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8.190443699999999e-06</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0001364746</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.1254874e-07</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.6366422e-09</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>7.518602499999999e-08</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>6.4602524e-12</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.4593418e-08</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1.9707109e-11</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2.7650314e-09</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1.7341182e-08</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>2.7095215e-13</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.0026965161</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1.8039522e-06</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1.0243272e-06</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>4.5631523e-07</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.001971322</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.00040447742</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>6.059863400000001e-05</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>3.3151604e-05</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>3.3151604e-05</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.00021366375</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>B.046.02.104</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Electricity New Brunswick production</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.031855408488</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0013639525</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00212640856</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.010774236428</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.017590811</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0011321417</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00099426686</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00088553834</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.00047841416</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.8316428e-05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.01070592</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.1172720733333334</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>5.4198524</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.92754444</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.3243344</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.8538597</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.067055948</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.24705786</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.002417259</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0022837804</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.6730816e-05</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3.6747836e-05</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.3691729e-07</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.5773231e-10</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0051467558</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.0882848e-07</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.283618e-10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8.9713135e-15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.3730112e-11</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.8065075e-08</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>5.4116232e-12</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2.3949912e-11</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.8060536e-05</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0051286952</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>7.1832628e-06</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.6511793e-07</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.2698565e-06</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>4.2159344e-10</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>5.6423234e-07</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.2860779e-09</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1.7999379e-07</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>3.0023544e-06</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>8.6633709e-14</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.11727207</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.00011297128</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>6.7566813e-05</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>1.8834327e-05</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.076898543</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.017590811</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.00349036106</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.00212640856</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.00212640856</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.010774236428</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>B.046.02.105</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Electricity Newfoundland and Labrador production</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.001688553049</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.124790799999999e-05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000183346221</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00020648812</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0012174708</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00013276765</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.0578571e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.4372766e-05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.6875142e-05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00020648812</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.008116472000000001</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>2.4751724</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.06672273200000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.3373757</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0042223622</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.0668516</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.00018708778</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0001755216</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.9780899e-06</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.5880816e-06</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.0522878e-08</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.5806546e-11</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.00064258846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.5320862e-09</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>2.2726122e-11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>6.2091013e-16</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.1890741e-12</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.9896027e-09</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.711669e-13</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.8086355e-12</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>7.9153778e-06</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.00063467308</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>3.8418666e-07</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.9363582e-08</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.2630878e-07</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.1125305e-11</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>4.8956656e-08</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>6.4443098e-11</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>9.7390465e-09</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>7.9732766e-08</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2.6185256e-13</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.008116472200000001</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1.3248281e-05</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>3.4371384e-06</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1.7291966e-06</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.009053289000000001</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.0012174708</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.000264594129</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.000183346221</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.000183346221</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.00020648812</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2498,297 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>B.046.02.106</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Electricity Northwest Territories production</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.01414591994</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.00121347058</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00215735741</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00015080295</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.010624289</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0012847989</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00087255851</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00078505041</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.00042842017</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.00015080295</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.07082859333333334</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>3.3732382</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.83316767</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.7878497</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.05514047</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.69708036</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001711549</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0015979982</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.2273743e-05</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5.127703e-05</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>9.580324999999999e-08</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.303023e-10</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0071816569</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.5728932e-08</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.9832005e-10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5.4183872e-15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.1037299e-11</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.0053281e-08</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>4.7975303e-12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.7179301e-11</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>5.7807798e-06</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0071758761</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3.840295e-06</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.8738232e-07</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.974889e-06</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3.7375243e-10</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>5.3782365e-07</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.1401381e-09</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1.6223023e-07</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>9.764556999999999e-07</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1.9123686e-13</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.070828591</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.00012820425</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>5.9295949e-05</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>1.8518498e-05</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.11279694</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.010624289</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.00337082799</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.00215735741</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.00215735741</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.00015080295</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2807,297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>B.046.02.107</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Electricity Nova Scotia production</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.042833162633</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0031649484</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0045296504</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.4705833e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.035073858</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.002279271</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0022503794</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0019569717</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0012079767</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.4705833e-05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.23382572</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>5.5935083</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.4007013</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.9444468</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.1474266</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.10093349</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0048785831</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0046267736</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0001933106</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5.8498898e-05</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.7738451e-07</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7.1490605e-10</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.008193123</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.1699027e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5471201e-10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.7887667e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5.2441726e-11</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6.034179799999999e-08</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.1959272e-11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>4.8216878e-11</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>2.4803903e-06</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.008190642600000001</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.1482491e-05</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3.3242173e-07</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>6.5196815e-06</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>9.3168914e-10</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.3550632e-06</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2.8421334e-09</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>3.9566432e-07</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>2.8758869e-06</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>8.2055028e-14</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.23382572</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.0002274381</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.00015292772</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>4.40231e-05</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.11412057</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.035073858</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.0076945988</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.0045296504</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.0045296504</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>6.4705833e-05</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3116,297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>B.046.02.108</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Electricity Nunavut production</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0.05147977346578</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0030165157</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.009110964500000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.8726578e-07</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.039351706</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0071802419</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0019307226</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0016522305</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0013642852</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.8726578e-07</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.2623447066666667</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>6.807562</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.2192776</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.5861925</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0020918874</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0070658965</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0065936055</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.00024243436</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00022985658</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.9530009e-07</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>8.9657677e-10</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.032192798</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.4345589e-07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.3456518e-10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.006937e-14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4.4275457e-11</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1.5179993e-07</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.0096964e-11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.5189455e-10</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.2511855e-08</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.032192776</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.472001e-05</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.047207e-06</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>7.3148665e-06</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>7.8660573e-10</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2.083765e-06</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>2.399554e-09</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>3.8381034e-07</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>3.8871748e-06</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>7.447259e-16</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.26234471</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.00071648375</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.00013120499</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>7.7807185e-05</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.43733582</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.039351706</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.0121274802</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.009110964500000001</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.009110964500000001</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>5.8726578e-07</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -718,18 +3425,297 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>B.046.02.109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Electricity Ontario production</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0.018968628413</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00043200385</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00085857751</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.015056048753</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0026219983</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00052332133</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00033525618</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00031144933</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.00012055452</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8.9999753e-05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.014966049</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.01747998866666667</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>5.2048931</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.21517108</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.8513173</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.7442112</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.13400355</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.26019003</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.00049023257</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.00046078138</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1.6742957e-05</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.2708241e-05</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.7624783e-08</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6.191921800000001e-11</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.0017798657</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.622143e-08</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>4.8943969e-11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.3372192e-15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>8.3460278e-12</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.1395007e-08</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.9033015e-12</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.107061e-11</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>2.503635e-05</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.0017548294</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3.7034179e-06</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>7.6324133e-08</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>4.8738847e-07</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.4827703e-10</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.7077678e-07</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>4.5232158e-10</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>6.4489671e-08</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2.9038381e-06</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1.1413086e-13</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.017479989</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>5.221986e-05</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>2.2782809e-05</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>6.1975603e-06</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.029131771</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.0026219983</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.00129058136</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.00085857751</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.00085857751</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.015056048753</v>
+      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -748,18 +3734,297 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>B.046.02.110</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Electricity Prince Edward Island production</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0.016920235499</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.7805508e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.000158529351</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00033111064</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01636279</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.00010823919</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.0290161e-05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.7441273e-05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.0364235e-05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.00033111064</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.1090852666666667</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>2.4378196</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.036050019</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.3185069</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.0832627</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0018126278</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0017266728</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.3290434e-05</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.6645963e-06</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.0351755e-07</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3.0802675e-10</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.00037319276</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.0123113e-07</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3.0543874e-10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>8.3450227e-15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.2713021e-12</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.285156e-09</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>2.8991889e-13</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>2.2897479e-12</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1.2692574e-05</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.00036050019</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.1424551e-06</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.5786214e-08</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>3.0415866e-06</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.2586182e-11</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>3.123127e-08</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>6.8899528e-11</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1.009339e-08</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>4.3665706e-08</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4.1988938e-13</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.10908526</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>1.0800697e-05</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>3.4175391e-06</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>1.1678788e-06</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.0049127139</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.01636279</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.000226334859</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.000158529351</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.000158529351</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.00033111064</v>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -778,18 +4043,297 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>B.046.02.111</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Electricity Quebec production</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>0.000741434405</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.4534539e-05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.7722376e-05</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00021482278</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.00041435471</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.0960163e-05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.6762213e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.3809446e-05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.0725093e-05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.00021482278</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.002762364733333334</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>2.4289887</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.029730161</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.3139325</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.053284827</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.0320412</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.512795499999999e-05</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.0599732e-05</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.3651421e-06</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.16308e-06</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3.6330775e-09</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>8.746827199999999e-12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.00030295239</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.5634745e-09</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.734621200000001e-12</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.113209e-16</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>6.3803091e-13</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.068965e-09</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.4550217e-13</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>8.6649249e-13</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8.234873300000001e-06</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.00029471751</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1.4751577e-07</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>5.973861e-09</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>7.7022058e-08</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.1335372e-11</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.3471494e-08</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>3.4578743e-11</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>4.9390871e-09</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>3.6063081e-08</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>2.7242195e-13</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.0027623647</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>4.0872287e-06</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1.8186641e-06</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>7.666102899999999e-07</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.0040639322</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.00041435471</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.000112256915</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>6.7722376e-05</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>6.7722376e-05</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.00021482278</v>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -808,18 +4352,297 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>B.046.02.112</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Electricity Saskatchewan production</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.043708557964</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0035587222</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0050710153</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.3222464e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.035045598</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0024965812</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0025744341</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0022759772</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.001282745</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.3222464e-05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.23363732</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>5.4935004</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.4711279</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.8730214</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.039782053</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1095691</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0049837917</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0047093908</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.00019493814</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7.9462674e-05</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.8233758e-07</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>7.2092508e-10</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.011129226</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.1681543e-07</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6.5418449e-10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.7873255e-14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>6.099024e-11</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>6.5461159e-08</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.390875e-11</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>5.2813971e-11</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.2735278e-06</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.011127952</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1.1714865e-05</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>3.6411547e-07</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>6.5144284e-06</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.0835636e-09</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.448094e-06</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>3.3054289e-09</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>4.5870129e-07</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>2.9251367e-06</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>4.2130207e-14</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.23363732</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.0002491225</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.00017494932</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>4.7212804e-05</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.17412658</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.035045598</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.0086297375</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.0050710153</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.0050710153</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>3.3222464e-05</v>
+      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -838,18 +4661,297 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>B.046.02.113</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Energy, electricity Canada</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Electricity Yukon production</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>0.00794784496</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0010319177</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00200882226</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0001526817</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0047544233</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0012801893</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.00072863296</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.00065111529</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.00038080241</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0001526817</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0.03169615533333334</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="Z14" t="n">
+        <v>3.3269108</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.76585873</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.7685097</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0019961439</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.79054617</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0010595995</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.0009783508000000001</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.2397296e-05</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4.8851416e-05</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>5.8654125e-08</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.1981249e-10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.006841935</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.9414032e-08</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.8749235e-11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.4247559e-15</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.7448187e-11</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.9222644e-08</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3.9790379e-12</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2.7081787e-11</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>5.8527984e-06</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.0068360822</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.6068411e-06</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.8671003e-07</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>8.8377292e-07</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>3.0998764e-10</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>4.9464815e-07</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>9.456225000000001e-10</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>1.3658416e-07</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>9.0387004e-07</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>1.9361934e-13</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.031696156</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.00012774428</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>4.9515285e-05</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>1.7302913e-05</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.10378316</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.0047544233</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.00304073996</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.00200882226</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.00200882226</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.0001526817</v>
+      </c>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>electricity Canada.xlsx</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/electricity/electricity Canada.xlsx
+++ b/Data_processed/electricity/electricity Canada.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/electricity/electricity Canada.xlsx
+++ b/Data_processed/electricity/electricity Canada.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,14 +470,456 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>carbon (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ced (MJ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>climate change (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electricity Alberta production</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1832334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.1696617</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.1090334e-06</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Electricity British Columbia production</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.007710413333333334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.7146856</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.1498678e-07</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Electricity Manitoba production</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002696516133333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.4069924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.518602499999999e-08</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Electricity New Brunswick production</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1172720733333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.4198524</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.2698565e-06</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Electricity Newfoundland and Labrador production</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.008116472000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.4751724</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.2630878e-07</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Electricity Northwest Territories production</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07082859333333334</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.3732382</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.974889e-06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Electricity Nova Scotia production</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23382572</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.5935083</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.5196815e-06</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electricity Nunavut production</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2623447066666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.807562</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.3148665e-06</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Electricity Ontario production</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01747998866666667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.2048931</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.8738847e-07</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Electricity Prince Edward Island production</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1090852666666667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.4378196</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.0415866e-06</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electricity Quebec production</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.002762364733333334</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.4289887</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.7022058e-08</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Electricity Saskatchewan production</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.23363732</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.4935004</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.5144284e-06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>electricity Canada</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Electricity Yukon production</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03169615533333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.3269108</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.8377292e-07</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>